--- a/docs/base/DataLists.xlsx
+++ b/docs/base/DataLists.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="186">
   <si>
     <t xml:space="preserve">Nama File</t>
   </si>
@@ -33,9 +33,15 @@
     <t xml:space="preserve">Nama Pelapor</t>
   </si>
   <si>
+    <t xml:space="preserve">Hari Kejadian</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tanggal Kejadian</t>
   </si>
   <si>
+    <t xml:space="preserve">Waktu Kejadian</t>
+  </si>
+  <si>
     <t xml:space="preserve">Pelaku</t>
   </si>
   <si>
@@ -48,6 +54,9 @@
     <t xml:space="preserve">Tindak Pidana</t>
   </si>
   <si>
+    <t xml:space="preserve">Pasal</t>
+  </si>
+  <si>
     <t xml:space="preserve">Petugas Pencatat</t>
   </si>
   <si>
@@ -63,7 +72,13 @@
     <t xml:space="preserve">AHMAD HARIS</t>
   </si>
   <si>
-    <t xml:space="preserve">Hari kamis tanggal 06 Agustus 2015, sekira pukul 23.00 wib</t>
+    <t xml:space="preserve">Kamis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06 Agustus 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.00 WIB</t>
   </si>
   <si>
     <t xml:space="preserve">2 orang laki-laki </t>
@@ -72,7 +87,10 @@
     <t xml:space="preserve">AGUS MULYADI</t>
   </si>
   <si>
-    <t xml:space="preserve">Pencurian pasal 362 KUHP</t>
+    <t xml:space="preserve">Pencurian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">362 KUHP</t>
   </si>
   <si>
     <t xml:space="preserve">BUDI NUGROHO</t>
@@ -90,7 +108,13 @@
     <t xml:space="preserve">MUHAMMAD SOFIAN</t>
   </si>
   <si>
-    <t xml:space="preserve">JUMAT 07 AGUSTUS 2015, PUKUL 11.00 wib</t>
+    <t xml:space="preserve">Jumat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07 AGUSTUS 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.00 WIB</t>
   </si>
   <si>
     <t xml:space="preserve">Joko Suyono</t>
@@ -102,7 +126,10 @@
     <t xml:space="preserve">Muhamad Sofian</t>
   </si>
   <si>
-    <t xml:space="preserve">penganiayaan pasal 351 KUHP</t>
+    <t xml:space="preserve">penganiayaan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">351 KUHP</t>
   </si>
   <si>
     <t xml:space="preserve">Santoso</t>
@@ -120,10 +147,7 @@
     <t xml:space="preserve">SAMSURI</t>
   </si>
   <si>
-    <t xml:space="preserve">tidak diketahui</t>
-  </si>
-  <si>
-    <t xml:space="preserve">belum di ketahui</t>
+    <t xml:space="preserve">-</t>
   </si>
   <si>
     <t xml:space="preserve">Sutini</t>
@@ -132,7 +156,10 @@
     <t xml:space="preserve">Baharudin</t>
   </si>
   <si>
-    <t xml:space="preserve">pembunuhan pasal 338 KUHP</t>
+    <t xml:space="preserve">pembunuhan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">338 KUHP</t>
   </si>
   <si>
     <t xml:space="preserve">Rahmat Hidayat</t>
@@ -150,7 +177,13 @@
     <t xml:space="preserve">Hana Yani</t>
   </si>
   <si>
-    <t xml:space="preserve">Minggu 09 Agustus 2015, pukul 10.00 WIB</t>
+    <t xml:space="preserve">Minggu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09 Agustus 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.00 WIB</t>
   </si>
   <si>
     <t xml:space="preserve">Sutikno</t>
@@ -159,7 +192,10 @@
     <t xml:space="preserve">Fitria sari</t>
   </si>
   <si>
-    <t xml:space="preserve">Kejahatan kesusilaaan pasal 285 KUHP</t>
+    <t xml:space="preserve">Kejahatan kesusilaaan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">285 KUHP</t>
   </si>
   <si>
     <t xml:space="preserve">Sukirman</t>
@@ -177,7 +213,13 @@
     <t xml:space="preserve">Ibrohim Nur</t>
   </si>
   <si>
-    <t xml:space="preserve">senin 10 Agustus 2015 , pukul 15.00 WIB</t>
+    <t xml:space="preserve">Senin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 Agustus 2015 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.00 WIB</t>
   </si>
   <si>
     <t xml:space="preserve">Hasan Sadikin</t>
@@ -192,7 +234,13 @@
     <t xml:space="preserve">Jumakir</t>
   </si>
   <si>
-    <t xml:space="preserve">selasa 11 Agutstus 2015, pukul 16.00 WIB</t>
+    <t xml:space="preserve">Selasa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 Agustus 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.00 WIB</t>
   </si>
   <si>
     <t xml:space="preserve">Nina William</t>
@@ -210,7 +258,7 @@
     <t xml:space="preserve">Hatmini Rukmi</t>
   </si>
   <si>
-    <t xml:space="preserve">selasa 11 Agutstus 2015, pukul 20.00 WIB</t>
+    <t xml:space="preserve">20.00 WIB</t>
   </si>
   <si>
     <t xml:space="preserve">Mujiman</t>
@@ -219,7 +267,10 @@
     <t xml:space="preserve">Stela sitohang</t>
   </si>
   <si>
-    <t xml:space="preserve">pemalsuan Uang pasal 244 KUHP </t>
+    <t xml:space="preserve">pemalsuan Uang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">224 KUHP</t>
   </si>
   <si>
     <t xml:space="preserve">Prod8.docx</t>
@@ -231,7 +282,13 @@
     <t xml:space="preserve">Susana</t>
   </si>
   <si>
-    <t xml:space="preserve">Rabu 12 Agustus 2015, pukul 09.00 WIB</t>
+    <t xml:space="preserve">Rabu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 Agustus 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09.00 WIB</t>
   </si>
   <si>
     <t xml:space="preserve">Parjio</t>
@@ -243,7 +300,10 @@
     <t xml:space="preserve">Rini Harun</t>
   </si>
   <si>
-    <t xml:space="preserve">penggelapan pasal 372 KUHP</t>
+    <t xml:space="preserve">penggelapan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">372 KUHP</t>
   </si>
   <si>
     <t xml:space="preserve">Prod9.docx</t>
@@ -255,7 +315,10 @@
     <t xml:space="preserve">Hariawan</t>
   </si>
   <si>
-    <t xml:space="preserve">kamis 13 Agustus 2015, pukul 12.00 WIB</t>
+    <t xml:space="preserve">13 Agustus 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.00 WIB</t>
   </si>
   <si>
     <t xml:space="preserve">adi jauhari</t>
@@ -276,7 +339,10 @@
     <t xml:space="preserve">aan setiawan</t>
   </si>
   <si>
-    <t xml:space="preserve">kamis 13 Agustus 2015, pukul 17.00 WIB</t>
+    <t xml:space="preserve">kamis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.00 WIB</t>
   </si>
   <si>
     <t xml:space="preserve">pendi wijawa</t>
@@ -285,7 +351,10 @@
     <t xml:space="preserve">agung jati</t>
   </si>
   <si>
-    <t xml:space="preserve">penadahan pasal 480 KUHP</t>
+    <t xml:space="preserve">penadahan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">480 KUHP</t>
   </si>
   <si>
     <t xml:space="preserve">Prod11.docx</t>
@@ -297,7 +366,10 @@
     <t xml:space="preserve">matheus dwi aji</t>
   </si>
   <si>
-    <t xml:space="preserve">jumat 14 Agustus 2015, pukul 09.30 WIB</t>
+    <t xml:space="preserve">14 Agustus 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09.30 WIB</t>
   </si>
   <si>
     <t xml:space="preserve">Matheus dwi aji</t>
@@ -315,7 +387,7 @@
     <t xml:space="preserve">jayadi eka</t>
   </si>
   <si>
-    <t xml:space="preserve">jumat 14 Agustus 2015, pukul 14.20 WIB</t>
+    <t xml:space="preserve">14.20 WIB</t>
   </si>
   <si>
     <t xml:space="preserve">indra sanjaya, budi eko</t>
@@ -324,7 +396,10 @@
     <t xml:space="preserve">nirmana sari</t>
   </si>
   <si>
-    <t xml:space="preserve">pemerasan dan pengancaman pasal 368 KUHP</t>
+    <t xml:space="preserve">pemerasan dan pengancaman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">368 KUHP</t>
   </si>
   <si>
     <t xml:space="preserve">Prod0.docx</t>
@@ -336,7 +411,13 @@
     <t xml:space="preserve">mufidatun hidayati</t>
   </si>
   <si>
-    <t xml:space="preserve">sabtu 15 agustus 2015,pukul 18.00 WIB</t>
+    <t xml:space="preserve">Sabtu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15 agustus 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.00 WIB</t>
   </si>
   <si>
     <t xml:space="preserve">3 orang laki - laki</t>
@@ -357,7 +438,7 @@
     <t xml:space="preserve">Rizka Farika</t>
   </si>
   <si>
-    <t xml:space="preserve">sabtu 15 agustus 2015, pukul 22.00 WIB</t>
+    <t xml:space="preserve">22.00 WIB</t>
   </si>
   <si>
     <t xml:space="preserve">4 orang laki-laki</t>
@@ -378,7 +459,10 @@
     <t xml:space="preserve">Rizma wati</t>
   </si>
   <si>
-    <t xml:space="preserve">minggu 16 agustus 2015, pukul 08.30 WIB</t>
+    <t xml:space="preserve">16 agustus 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08.30 WIB</t>
   </si>
   <si>
     <t xml:space="preserve">Rizma Wati</t>
@@ -393,9 +477,6 @@
     <t xml:space="preserve">Susanti</t>
   </si>
   <si>
-    <t xml:space="preserve">minggu 16 agustus 2015, pukul 12.00 WIB</t>
-  </si>
-  <si>
     <t xml:space="preserve">seorang wanita</t>
   </si>
   <si>
@@ -408,7 +489,7 @@
     <t xml:space="preserve">Rahmat santosa</t>
   </si>
   <si>
-    <t xml:space="preserve">minggu 16 agustus 2015, pukul 14.00 WIB</t>
+    <t xml:space="preserve">14.00 WIB</t>
   </si>
   <si>
     <t xml:space="preserve">thomas Watimena</t>
@@ -426,7 +507,10 @@
     <t xml:space="preserve">franciskus heri</t>
   </si>
   <si>
-    <t xml:space="preserve">senin 17 agustus 2015, pukul 10.30 WIB</t>
+    <t xml:space="preserve">17 agustus 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.30 WIB</t>
   </si>
   <si>
     <t xml:space="preserve">johan kusuma</t>
@@ -441,7 +525,7 @@
     <t xml:space="preserve">tukimin</t>
   </si>
   <si>
-    <t xml:space="preserve">senin 17 agustus 2015, pukul 13.00 WIB</t>
+    <t xml:space="preserve">13.00 WIB</t>
   </si>
   <si>
     <t xml:space="preserve">Tukimin</t>
@@ -456,16 +540,13 @@
     <t xml:space="preserve">aldi irawan</t>
   </si>
   <si>
-    <t xml:space="preserve">senin 17 agustus 2015, pukul 16.00 WIB</t>
-  </si>
-  <si>
     <t xml:space="preserve">LP/60/II/2015/DIY/RES.BTL/Sek.Sewon</t>
   </si>
   <si>
     <t xml:space="preserve">riski juniawan</t>
   </si>
   <si>
-    <t xml:space="preserve">selasa 18 Agustus 2015, pukul 11.00 WIB</t>
+    <t xml:space="preserve">18 Agustus 2015</t>
   </si>
   <si>
     <t xml:space="preserve">riski Juniawan</t>
@@ -480,7 +561,10 @@
     <t xml:space="preserve">intan febrian</t>
   </si>
   <si>
-    <t xml:space="preserve">rabu 19 agustus 2015, pukul 08.00 WIB</t>
+    <t xml:space="preserve">19 agustus 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08.00 WIB</t>
   </si>
   <si>
     <t xml:space="preserve">ratna sari</t>
@@ -492,7 +576,10 @@
     <t xml:space="preserve">yusuf hasim</t>
   </si>
   <si>
-    <t xml:space="preserve">penipuan pasal 378 KUHP </t>
+    <t xml:space="preserve">penipuan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">378 KUHP</t>
   </si>
 </sst>
 </file>
@@ -605,19 +692,28 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J16" activeCellId="0" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="59.1295546558704"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="2" width="59.1295546558704"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="55.7004048582996"/>
-    <col collapsed="false" hidden="false" max="10" min="5" style="2" width="59.1295546558704"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="1" width="59.1295546558704"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="12.0485829959514"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="34.2145748987854"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="19.4372469635628"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="12.9311740890688"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="17.3400809716599"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="14.6963562753036"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="17.7813765182186"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="19.2186234817814"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="28.3643724696356"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="19.8461538461538"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="2" width="16.4615384615385"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="2" width="20.0971659919028"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="1" width="59.1295546558704"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -651,688 +747,895 @@
       <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="I2" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>47</v>
+        <v>56</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>38</v>
+        <v>21</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>38</v>
+        <v>81</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>18</v>
+        <v>92</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>17</v>
+        <v>101</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>47</v>
+        <v>109</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>33</v>
+        <v>114</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>16</v>
+        <v>116</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>27</v>
+        <v>117</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>97</v>
+        <v>28</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>27</v>
+        <v>120</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>28</v>
+        <v>124</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>16</v>
+        <v>133</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>17</v>
+        <v>134</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>109</v>
+        <v>136</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>110</v>
+        <v>137</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>113</v>
+        <v>138</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>114</v>
+        <v>139</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>45</v>
+        <v>140</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>17</v>
+        <v>141</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>18</v>
+        <v>56</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>117</v>
+        <v>144</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>118</v>
+        <v>51</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>33</v>
+        <v>145</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>120</v>
+        <v>41</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>16</v>
+        <v>147</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>46</v>
+        <v>148</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>47</v>
+        <v>21</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="2" t="s">
-        <v>121</v>
+        <v>149</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>122</v>
+        <v>150</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>123</v>
+        <v>51</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>125</v>
+        <v>151</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>16</v>
+        <v>150</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>46</v>
+        <v>152</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>47</v>
+        <v>21</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="2" t="s">
-        <v>126</v>
+        <v>153</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>128</v>
+        <v>51</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>131</v>
+        <v>156</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>26</v>
+        <v>157</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>46</v>
+        <v>158</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>47</v>
+        <v>34</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="2" t="s">
-        <v>132</v>
+        <v>159</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>133</v>
+        <v>160</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>134</v>
+        <v>63</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>135</v>
+        <v>161</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>133</v>
+        <v>163</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>73</v>
+        <v>164</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>27</v>
+        <v>160</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>28</v>
+        <v>92</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="2" t="s">
-        <v>137</v>
+        <v>165</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>138</v>
+        <v>166</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>139</v>
+        <v>63</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>33</v>
+        <v>161</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>140</v>
+        <v>167</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>141</v>
+        <v>41</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>16</v>
+        <v>168</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>27</v>
+        <v>169</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="2" t="s">
-        <v>142</v>
+        <v>170</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>143</v>
+        <v>171</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>144</v>
+        <v>63</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>33</v>
+        <v>161</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>143</v>
+        <v>72</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>120</v>
+        <v>41</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>16</v>
+        <v>171</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>27</v>
+        <v>148</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="2" t="s">
-        <v>145</v>
+        <v>172</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>146</v>
+        <v>173</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>147</v>
+        <v>70</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>33</v>
+        <v>174</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>148</v>
+        <v>30</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>149</v>
+        <v>41</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>16</v>
+        <v>175</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="2" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>151</v>
+        <v>178</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>152</v>
+        <v>86</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>153</v>
+        <v>179</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>154</v>
+        <v>180</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>155</v>
+        <v>181</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>156</v>
+        <v>182</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>27</v>
+        <v>183</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>28</v>
+        <v>184</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/docs/base/DataLists.xlsx
+++ b/docs/base/DataLists.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="178">
   <si>
     <t xml:space="preserve">Nama File</t>
   </si>
@@ -42,6 +42,9 @@
     <t xml:space="preserve">Waktu Kejadian</t>
   </si>
   <si>
+    <t xml:space="preserve">Tempat</t>
+  </si>
+  <si>
     <t xml:space="preserve">Pelaku</t>
   </si>
   <si>
@@ -57,12 +60,6 @@
     <t xml:space="preserve">Pasal</t>
   </si>
   <si>
-    <t xml:space="preserve">Petugas Pencatat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jabatan</t>
-  </si>
-  <si>
     <t xml:space="preserve">Prod1.docx</t>
   </si>
   <si>
@@ -93,12 +90,6 @@
     <t xml:space="preserve">362 KUHP</t>
   </si>
   <si>
-    <t xml:space="preserve">BUDI NUGROHO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AIPTU NRP 71110231</t>
-  </si>
-  <si>
     <t xml:space="preserve">Prod2.docx</t>
   </si>
   <si>
@@ -132,12 +123,6 @@
     <t xml:space="preserve">351 KUHP</t>
   </si>
   <si>
-    <t xml:space="preserve">Santoso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AIPTU NRP 71110224</t>
-  </si>
-  <si>
     <t xml:space="preserve">Prod3.docx</t>
   </si>
   <si>
@@ -150,6 +135,9 @@
     <t xml:space="preserve">-</t>
   </si>
   <si>
+    <t xml:space="preserve">Belum diketahui</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sutini</t>
   </si>
   <si>
@@ -162,12 +150,6 @@
     <t xml:space="preserve">338 KUHP</t>
   </si>
   <si>
-    <t xml:space="preserve">Rahmat Hidayat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AIPTU NRP 61110332</t>
-  </si>
-  <si>
     <t xml:space="preserve">Prod4.docx</t>
   </si>
   <si>
@@ -196,12 +178,6 @@
   </si>
   <si>
     <t xml:space="preserve">285 KUHP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sukirman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AIPTU NRP 51210443</t>
   </si>
   <si>
     <t xml:space="preserve">Prod5.docx</t>
@@ -692,28 +668,28 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M23"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J16" activeCellId="0" sqref="J16"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="12.0485829959514"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="34.2145748987854"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="19.4372469635628"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="12.9311740890688"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="17.3400809716599"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="14.6963562753036"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="21.5303643724696"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="17.7813765182186"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="19.2186234817814"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="28.3643724696356"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="19.8461538461538"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="2" width="16.4615384615385"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="2" width="20.0971659919028"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="1" width="59.1295546558704"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="12.1052631578947"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="34.4939271255061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="17.4615384615385"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="14.7813765182186"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="2" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="2" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="2" width="16.497975708502"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="1025" min="15" style="1" width="59.663967611336"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -753,889 +729,754 @@
       <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="I2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="I5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="L5" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="J6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="J7" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="I8" s="2" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J9" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="K9" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="L9" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="J10" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="L11" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>41</v>
+        <v>107</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>116</v>
+        <v>37</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="J12" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L12" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E13" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="H13" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="I13" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>37</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="J14" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="J14" s="2" t="s">
+      <c r="K14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L14" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="E15" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="H15" s="2" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>56</v>
+        <v>133</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>41</v>
+        <v>138</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>147</v>
+        <v>37</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="J16" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L16" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="2" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>151</v>
+        <v>90</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="J17" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L17" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="2" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>34</v>
+        <v>150</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="2" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>92</v>
+        <v>152</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M19" s="2" t="s">
-        <v>37</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="2" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="E20" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="J20" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="F20" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="J20" s="2" t="s">
+      <c r="K20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L20" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M20" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="2" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>171</v>
+        <v>37</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="J21" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L21" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M21" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="2" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>175</v>
+        <v>37</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="J22" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L22" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M22" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="L23" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="L23" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M23" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/docs/base/DataLists.xlsx
+++ b/docs/base/DataLists.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="141">
   <si>
     <t xml:space="preserve">Nama File</t>
   </si>
@@ -445,117 +445,6 @@
   </si>
   <si>
     <t xml:space="preserve">tidak ada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LP/55/II/2015/DIY/RES.BTL/Sek.Sewon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Susanti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">seorang wanita</t>
-  </si>
-  <si>
-    <t xml:space="preserve">indah jayanti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LP/56/II/2015/DIY/RES.BTL/Sek.Sewon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rahmat santosa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.00 WIB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">thomas Watimena</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rudi kurniawan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rahmat santosa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LP/57/II/2015/DIY/RES.BTL/Sek.Sewon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">franciskus heri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17 agustus 2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.30 WIB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">johan kusuma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PT. Adira finance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LP/58/II/2015/DIY/RES.BTL/Sek.Sewon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tukimin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.00 WIB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tukimin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yatinem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LP/59/II/2015/DIY/RES.BTL/Sek.Sewon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aldi irawan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LP/60/II/2015/DIY/RES.BTL/Sek.Sewon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">riski juniawan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18 Agustus 2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">riski Juniawan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">indra bekti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LP/61/II/2015/DIY/RES.BTL/Sek.Sewon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">intan febrian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19 agustus 2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">08.00 WIB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ratna sari</t>
-  </si>
-  <si>
-    <t xml:space="preserve">intan febrian </t>
-  </si>
-  <si>
-    <t xml:space="preserve">yusuf hasim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">penipuan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">378 KUHP</t>
   </si>
 </sst>
 </file>
@@ -668,28 +557,28 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
+      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="12.1052631578947"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="34.4939271255061"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="12.9595141700405"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="17.4615384615385"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="14.7813765182186"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="2" width="21.7449392712551"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="17.8906882591093"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="19.3886639676113"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="28.4939271255061"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="2" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="12.2105263157895"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="34.7085020242915"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="17.5668016194332"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="14.8906882591093"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="2" width="21.9595141700405"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="28.7085020242915"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="2" width="20.1376518218623"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="2" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="20.246963562753"/>
-    <col collapsed="false" hidden="false" max="1025" min="15" style="1" width="59.663967611336"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="1025" min="15" style="1" width="60.2024291497976"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1253,230 +1142,6 @@
       </c>
       <c r="L16" s="2" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="L23" s="2" t="s">
-        <v>177</v>
       </c>
     </row>
   </sheetData>
